--- a/ESPN sports website/IPL/Rajasthan Royals/Trent Boult.xlsx
+++ b/ESPN sports website/IPL/Rajasthan Royals/Trent Boult.xlsx
@@ -480,10 +480,10 @@
         <v>Trent Boult</v>
       </c>
       <c r="C3" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="str">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="str">
-        <v>-</v>
+        <v>200.00</v>
       </c>
       <c r="H3" t="str">
-        <v>Gujarat Titans</v>
+        <v>Lucknow Super Giants</v>
       </c>
       <c r="I3" t="str">
-        <v>Kolkata</v>
+        <v>Wankhede</v>
       </c>
       <c r="J3" t="str">
-        <v>May 24, 2022</v>
+        <v>April 10, 2022</v>
       </c>
       <c r="K3" t="str">
-        <v>Titans won by 7 wickets (with 3 balls remaining)</v>
+        <v>Royals won by 3 runs</v>
       </c>
     </row>
     <row r="4">
@@ -515,31 +515,31 @@
         <v>Trent Boult</v>
       </c>
       <c r="C4" t="str">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D4" t="str">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E4" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="str">
-        <v>157.14</v>
+        <v>188.88</v>
       </c>
       <c r="H4" t="str">
-        <v>Gujarat Titans</v>
+        <v>Lucknow Super Giants</v>
       </c>
       <c r="I4" t="str">
-        <v>Ahmedabad</v>
+        <v>Brabourne</v>
       </c>
       <c r="J4" t="str">
-        <v>May 29, 2022</v>
+        <v>May 15, 2022</v>
       </c>
       <c r="K4" t="str">
-        <v>Titans won by 7 wickets (with 11 balls remaining)</v>
+        <v>Royals won by 24 runs</v>
       </c>
     </row>
     <row r="5">
@@ -585,7 +585,7 @@
         <v>Trent Boult</v>
       </c>
       <c r="C6" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="str">
         <v>1</v>
@@ -597,19 +597,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="str">
-        <v>200.00</v>
+        <v>100.00</v>
       </c>
       <c r="H6" t="str">
-        <v>Lucknow Super Giants</v>
+        <v>Mumbai Indians</v>
       </c>
       <c r="I6" t="str">
-        <v>Wankhede</v>
+        <v>DY Patil</v>
       </c>
       <c r="J6" t="str">
-        <v>April 10, 2022</v>
+        <v>April 30, 2022</v>
       </c>
       <c r="K6" t="str">
-        <v>Royals won by 3 runs</v>
+        <v>Mumbai won by 5 wickets (with 4 balls remaining)</v>
       </c>
     </row>
     <row r="7">
@@ -620,10 +620,10 @@
         <v>Trent Boult</v>
       </c>
       <c r="C7" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="str">
         <v>0</v>
@@ -632,19 +632,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="str">
-        <v>100.00</v>
+        <v>-</v>
       </c>
       <c r="H7" t="str">
-        <v>Mumbai Indians</v>
+        <v>Gujarat Titans</v>
       </c>
       <c r="I7" t="str">
-        <v>DY Patil</v>
+        <v>Kolkata</v>
       </c>
       <c r="J7" t="str">
-        <v>April 30, 2022</v>
+        <v>May 24, 2022</v>
       </c>
       <c r="K7" t="str">
-        <v>Mumbai won by 5 wickets (with 4 balls remaining)</v>
+        <v>Titans won by 7 wickets (with 3 balls remaining)</v>
       </c>
     </row>
     <row r="8">
@@ -655,7 +655,7 @@
         <v>Trent Boult</v>
       </c>
       <c r="C8" t="str">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D8" t="str">
         <v>7</v>
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="F8" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="str">
-        <v>71.42</v>
+        <v>157.14</v>
       </c>
       <c r="H8" t="str">
-        <v>Royal Challengers Bangalore</v>
+        <v>Gujarat Titans</v>
       </c>
       <c r="I8" t="str">
-        <v>Pune</v>
+        <v>Ahmedabad</v>
       </c>
       <c r="J8" t="str">
-        <v>April 26, 2022</v>
+        <v>May 29, 2022</v>
       </c>
       <c r="K8" t="str">
-        <v>Royals won by 29 runs</v>
+        <v>Titans won by 7 wickets (with 11 balls remaining)</v>
       </c>
     </row>
     <row r="9">
@@ -690,31 +690,31 @@
         <v>Trent Boult</v>
       </c>
       <c r="C9" t="str">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D9" t="str">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E9" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9" t="str">
         <v>0</v>
       </c>
       <c r="G9" t="str">
-        <v>188.88</v>
+        <v>71.42</v>
       </c>
       <c r="H9" t="str">
-        <v>Lucknow Super Giants</v>
+        <v>Royal Challengers Bangalore</v>
       </c>
       <c r="I9" t="str">
-        <v>Brabourne</v>
+        <v>Pune</v>
       </c>
       <c r="J9" t="str">
-        <v>May 15, 2022</v>
+        <v>April 26, 2022</v>
       </c>
       <c r="K9" t="str">
-        <v>Royals won by 24 runs</v>
+        <v>Royals won by 29 runs</v>
       </c>
     </row>
   </sheetData>
